--- a/ClojureTests/src/tools/excel/spreadsheet.xlsx
+++ b/ClojureTests/src/tools/excel/spreadsheet.xlsx
@@ -8,24 +8,55 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkersh/JupyterNotebooks/ClojureTests/src/tools/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8FC6DC-4C0F-E34E-9956-177D49877BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70A4528-A940-0B43-8AAA-63CA0540A9A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>hello</t>
   </si>
   <si>
     <t>world</t>
+  </si>
+  <si>
+    <t>col3</t>
+  </si>
+  <si>
+    <t>col4</t>
+  </si>
+  <si>
+    <t>val33</t>
+  </si>
+  <si>
+    <t>val44</t>
+  </si>
+  <si>
+    <t>sh2 Col1</t>
+  </si>
+  <si>
+    <t>sh2 Col2</t>
+  </si>
+  <si>
+    <t>sh2 col E</t>
+  </si>
+  <si>
+    <t>s2-11</t>
+  </si>
+  <si>
+    <t>s2-22</t>
+  </si>
+  <si>
+    <t>s2-ee</t>
   </si>
 </sst>
 </file>
@@ -285,23 +316,29 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>22</v>
       </c>
@@ -309,7 +346,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>333</v>
       </c>
@@ -317,15 +354,21 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>555</v>
       </c>
       <c r="B4">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>666</v>
       </c>
@@ -333,12 +376,49 @@
         <v>777</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>888</v>
       </c>
       <c r="B6">
         <v>999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD4D5A7-1D86-B94C-A2FB-937F144394AE}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
